--- a/LabVIEW/99_Source/Recalc Offen.xlsx
+++ b/LabVIEW/99_Source/Recalc Offen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vespa-Prüfstand\WildBugChilGru\LabVIEW\99_Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58646E73-9C7B-4F85-A0BF-BA863CDC8EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBBAB95-9361-40CD-B74B-C13EBD696B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Umschaltung AFR &lt;&gt; Lambda</t>
   </si>
   <si>
-    <t>Y-Achsen Skalierung ändern?</t>
-  </si>
-  <si>
     <t>Plot Farben:</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Plots anzeigen</t>
+  </si>
+  <si>
+    <t>Y-Achsen Skalierung ändern</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +406,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -416,77 +416,77 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/LabVIEW/99_Source/Recalc Offen.xlsx
+++ b/LabVIEW/99_Source/Recalc Offen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vespa-Prüfstand\WildBugChilGru\LabVIEW\99_Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBBAB95-9361-40CD-B74B-C13EBD696B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5438578-F062-48E8-8A03-543DAF0F8CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,57 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Umschaltung AFR &lt;&gt; Lambda</t>
-  </si>
-  <si>
-    <t>Plot Farben:</t>
-  </si>
-  <si>
-    <t>1 rt Thermoelementfüllung</t>
-  </si>
-  <si>
-    <t>3 bl Scieberfüllung</t>
-  </si>
-  <si>
-    <t>5 gn 0 128 0</t>
-  </si>
-  <si>
-    <t>7 or 255 179 42</t>
-  </si>
-  <si>
-    <t>9 sw Text</t>
-  </si>
-  <si>
-    <t>11 hbl klassischer Schieberknopf</t>
-  </si>
-  <si>
-    <t>13 128 0 0</t>
-  </si>
-  <si>
-    <t>15 210 255 113</t>
-  </si>
-  <si>
-    <t>17 255 0 128</t>
-  </si>
-  <si>
-    <t>19 255 66 182</t>
-  </si>
-  <si>
-    <t>21 0 255 255</t>
-  </si>
-  <si>
-    <t>23 14 255 0</t>
   </si>
   <si>
     <t>Cursor-Werte</t>
   </si>
   <si>
-    <t>Plots anzeigen</t>
-  </si>
-  <si>
-    <t>Y-Achsen Skalierung ändern</t>
+    <t>Plots anzeigen/ausblenden</t>
   </si>
 </sst>
 </file>
@@ -393,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +364,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -416,77 +374,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/LabVIEW/99_Source/Recalc Offen.xlsx
+++ b/LabVIEW/99_Source/Recalc Offen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vespa-Prüfstand\WildBugChilGru\LabVIEW\99_Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5438578-F062-48E8-8A03-543DAF0F8CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1162B2-9946-4B62-B16C-C52B746B0307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Umschaltung AFR &lt;&gt; Lambda</t>
   </si>
@@ -33,7 +33,10 @@
     <t>Cursor-Werte</t>
   </si>
   <si>
-    <t>Plots anzeigen/ausblenden</t>
+    <t>Print graph</t>
+  </si>
+  <si>
+    <t>Automatenmodus</t>
   </si>
 </sst>
 </file>
@@ -351,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,17 +367,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/LabVIEW/99_Source/Recalc Offen.xlsx
+++ b/LabVIEW/99_Source/Recalc Offen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vespa-Prüfstand\WildBugChilGru\LabVIEW\99_Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1162B2-9946-4B62-B16C-C52B746B0307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033AD5E0-BA3C-487A-9D4C-9D8F23C4817D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Umschaltung AFR &lt;&gt; Lambda</t>
-  </si>
-  <si>
-    <t>Cursor-Werte</t>
   </si>
   <si>
     <t>Print graph</t>
@@ -354,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,11 +377,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LabVIEW/99_Source/Recalc Offen.xlsx
+++ b/LabVIEW/99_Source/Recalc Offen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vespa-Prüfstand\WildBugChilGru\LabVIEW\99_Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033AD5E0-BA3C-487A-9D4C-9D8F23C4817D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD835FAC-2263-46E1-A2F4-F24653D3146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Umschaltung AFR &lt;&gt; Lambda</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Print graph</t>
   </si>
@@ -351,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -372,11 +369,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
